--- a/Feature-Analysis/Resize Feature/s_25_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_25_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.67708333337</v>
+        <v>738157.67708333337</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.67746527772</v>
+        <v>738157.67746527772</v>
       </c>
       <c r="C3" s="0">
         <v>32.999991998076439</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.6781365741</v>
+        <v>738157.6781365741</v>
       </c>
       <c r="C4" s="0">
         <v>90.999999269843102</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.67848379631</v>
+        <v>738157.67848379631</v>
       </c>
       <c r="C5" s="0">
         <v>120.99999748170376</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.67883101851</v>
+        <v>738157.67883101851</v>
       </c>
       <c r="C6" s="0">
         <v>150.99999569356441</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.67917824071</v>
+        <v>738157.67917824071</v>
       </c>
       <c r="C7" s="0">
         <v>180.99999390542507</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.67952546291</v>
+        <v>738157.67952546291</v>
       </c>
       <c r="C8" s="0">
         <v>210.99999211728573</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.67988425924</v>
+        <v>738157.67988425924</v>
       </c>
       <c r="C9" s="0">
         <v>241.99999496340752</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.68032407411</v>
+        <v>738157.68032407411</v>
       </c>
       <c r="C10" s="0">
         <v>280.00000007450581</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.6806018519</v>
+        <v>738157.6806018519</v>
       </c>
       <c r="C11" s="0">
         <v>304.00000065565109</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.68092592596</v>
+        <v>738157.68092592596</v>
       </c>
       <c r="C12" s="0">
         <v>331.99999965727329</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.68126157403</v>
+        <v>738157.68126157403</v>
       </c>
       <c r="C13" s="0">
         <v>360.99999323487282</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.68160879635</v>
+        <v>738157.68160879635</v>
       </c>
       <c r="C14" s="0">
         <v>391.00000150501728</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.68197916669</v>
+        <v>738157.68197916669</v>
       </c>
       <c r="C15" s="0">
         <v>422.99999892711639</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.68230324076</v>
+        <v>738157.68230324076</v>
       </c>
       <c r="C16" s="0">
         <v>450.99999792873859</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.68299768516</v>
+        <v>738157.68299768516</v>
       </c>
       <c r="C17" s="0">
         <v>510.99999435245991</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.68335648149</v>
+        <v>738157.68335648149</v>
       </c>
       <c r="C18" s="0">
         <v>541.9999971985817</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.68370370369</v>
+        <v>738157.68370370369</v>
       </c>
       <c r="C19" s="0">
         <v>571.99999541044235</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.68403935188</v>
+        <v>738157.68403935188</v>
       </c>
       <c r="C20" s="0">
         <v>600.99999904632568</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.68438657408</v>
+        <v>738157.68438657408</v>
       </c>
       <c r="C21" s="0">
         <v>630.99999725818634</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.68466435187</v>
+        <v>738157.68466435187</v>
       </c>
       <c r="C22" s="0">
         <v>654.99999783933163</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.68498842593</v>
+        <v>738157.68498842593</v>
       </c>
       <c r="C23" s="0">
         <v>682.99999684095383</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.68534722226</v>
+        <v>738157.68534722226</v>
       </c>
       <c r="C24" s="0">
         <v>713.99999968707561</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.68568287033</v>
+        <v>738157.68568287033</v>
       </c>
       <c r="C25" s="0">
         <v>742.99999326467514</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.68604166666</v>
+        <v>738157.68604166666</v>
       </c>
       <c r="C26" s="0">
         <v>773.99999611079693</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.68640046299</v>
+        <v>738157.68640046299</v>
       </c>
       <c r="C27" s="0">
         <v>804.99999895691872</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.68708333338</v>
+        <v>738157.68708333338</v>
       </c>
       <c r="C28" s="0">
         <v>864.0000008046627</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.68741898146</v>
+        <v>738157.68741898146</v>
       </c>
       <c r="C29" s="0">
         <v>892.99999438226223</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.6877893518</v>
+        <v>738157.6877893518</v>
       </c>
       <c r="C30" s="0">
         <v>924.99999180436134</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.68813657411</v>
+        <v>738157.68813657411</v>
       </c>
       <c r="C31" s="0">
         <v>955.00000007450581</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.68847222219</v>
+        <v>738157.68847222219</v>
       </c>
       <c r="C32" s="0">
         <v>983.99999365210533</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.68880787038</v>
+        <v>738157.68880787038</v>
       </c>
       <c r="C33" s="0">
         <v>1012.9999972879887</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.68916666671</v>
+        <v>738157.68916666671</v>
       </c>
       <c r="C34" s="0">
         <v>1044.0000001341105</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.68951388891</v>
+        <v>738157.68951388891</v>
       </c>
       <c r="C35" s="0">
         <v>1073.9999983459711</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.68988425925</v>
+        <v>738157.68988425925</v>
       </c>
       <c r="C36" s="0">
         <v>1105.9999957680702</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.69021990744</v>
+        <v>738157.69021990744</v>
       </c>
       <c r="C37" s="0">
         <v>1134.9999994039536</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.69057870365</v>
+        <v>738157.69057870365</v>
       </c>
       <c r="C38" s="0">
         <v>1165.9999921917915</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.69091435184</v>
+        <v>738157.69091435184</v>
       </c>
       <c r="C39" s="0">
         <v>1194.9999958276749</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.6912384259</v>
+        <v>738157.6912384259</v>
       </c>
       <c r="C40" s="0">
         <v>1222.9999948292971</v>
